--- a/Users_to_try.xlsx
+++ b/Users_to_try.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VS\Carpetas\Entrega_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B62AEB-C274-4287-88CD-BC71FF5CF544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A193FD1-CF4A-4053-8990-963941A9C431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,10 +45,10 @@
     <t>bort_123</t>
   </si>
   <si>
-    <t>onetwo_3</t>
-  </si>
-  <si>
     <t>Homero123</t>
+  </si>
+  <si>
+    <t>soccer123</t>
   </si>
 </sst>
 </file>
@@ -369,7 +369,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -394,7 +394,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -410,7 +410,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Users_to_try.xlsx
+++ b/Users_to_try.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VS\Carpetas\Entrega_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A193FD1-CF4A-4053-8990-963941A9C431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1BB083-BC98-43B8-898A-412860208E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Usuario</t>
   </si>
@@ -49,6 +49,15 @@
   </si>
   <si>
     <t>soccer123</t>
+  </si>
+  <si>
+    <t>usuario</t>
+  </si>
+  <si>
+    <t>superuser</t>
+  </si>
+  <si>
+    <t>clarkkent123</t>
   </si>
 </sst>
 </file>
@@ -366,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,6 +405,9 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -404,6 +416,9 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -411,6 +426,17 @@
       </c>
       <c r="B4" t="s">
         <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Users_to_try.xlsx
+++ b/Users_to_try.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VS\Carpetas\Entrega_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1BB083-BC98-43B8-898A-412860208E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9085059-9A37-4761-90E7-F45151CB1ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Usuario</t>
   </si>
@@ -378,7 +389,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,6 +449,9 @@
       <c r="B5" t="s">
         <v>10</v>
       </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Users_to_try.xlsx
+++ b/Users_to_try.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VS\Carpetas\Entrega_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9085059-9A37-4761-90E7-F45151CB1ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09419771-BB95-469A-AD3F-955762844A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>Usuario</t>
   </si>
@@ -69,6 +69,36 @@
   </si>
   <si>
     <t>clarkkent123</t>
+  </si>
+  <si>
+    <t>peter</t>
+  </si>
+  <si>
+    <t>brain123</t>
+  </si>
+  <si>
+    <t>fer123</t>
+  </si>
+  <si>
+    <t>nando123</t>
+  </si>
+  <si>
+    <t>julian123</t>
+  </si>
+  <si>
+    <t>alvarez123</t>
+  </si>
+  <si>
+    <t>leonel123</t>
+  </si>
+  <si>
+    <t>pelota12345</t>
+  </si>
+  <si>
+    <t>monokoh</t>
+  </si>
+  <si>
+    <t>arbol123</t>
   </si>
 </sst>
 </file>
@@ -386,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,6 +483,61 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
